--- a/Asset/data_buku.xlsx
+++ b/Asset/data_buku.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\Proyek\referensi\BookManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project 1\Tubes Semester 1\Asset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11430DB2-ADDE-4527-BBEB-B7C8376BB97C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718FA041-9ADD-404F-9AFB-A02E9FD90D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="412">
   <si>
     <t>Judul</t>
   </si>
@@ -1250,6 +1250,12 @@
   </si>
   <si>
     <t>Tahun</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Available</t>
   </si>
 </sst>
 </file>
@@ -1618,15 +1624,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H107"/>
+  <dimension ref="A1:I107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G91" sqref="G91"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1651,8 +1657,11 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I1" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1677,8 +1686,11 @@
       <c r="H2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1703,8 +1715,11 @@
       <c r="H3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1729,8 +1744,11 @@
       <c r="H4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I4" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1755,8 +1773,11 @@
       <c r="H5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -1781,8 +1802,11 @@
       <c r="H6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -1807,8 +1831,11 @@
       <c r="H7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I7" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -1833,8 +1860,11 @@
       <c r="H8" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I8" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -1859,8 +1889,11 @@
       <c r="H9" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I9" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -1885,8 +1918,11 @@
       <c r="H10" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I10" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -1911,8 +1947,11 @@
       <c r="H11" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I11" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -1937,8 +1976,11 @@
       <c r="H12" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I12" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>59</v>
       </c>
@@ -1963,8 +2005,11 @@
       <c r="H13" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I13" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -1989,8 +2034,11 @@
       <c r="H14" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I14" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>71</v>
       </c>
@@ -2015,8 +2063,11 @@
       <c r="H15" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I15" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -2041,8 +2092,11 @@
       <c r="H16" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I16" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>83</v>
       </c>
@@ -2067,8 +2121,11 @@
       <c r="H17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I17" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>86</v>
       </c>
@@ -2093,8 +2150,11 @@
       <c r="H18" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I18" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>93</v>
       </c>
@@ -2119,8 +2179,11 @@
       <c r="H19" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I19" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>96</v>
       </c>
@@ -2145,8 +2208,11 @@
       <c r="H20" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I20" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>103</v>
       </c>
@@ -2171,8 +2237,11 @@
       <c r="H21" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I21" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>109</v>
       </c>
@@ -2197,8 +2266,11 @@
       <c r="H22" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I22" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>115</v>
       </c>
@@ -2223,8 +2295,11 @@
       <c r="H23" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I23" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>120</v>
       </c>
@@ -2249,8 +2324,11 @@
       <c r="H24" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I24" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>125</v>
       </c>
@@ -2275,8 +2353,11 @@
       <c r="H25" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I25" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>129</v>
       </c>
@@ -2301,8 +2382,11 @@
       <c r="H26" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I26" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>133</v>
       </c>
@@ -2327,8 +2411,11 @@
       <c r="H27" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I27" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>137</v>
       </c>
@@ -2353,8 +2440,11 @@
       <c r="H28" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I28" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>140</v>
       </c>
@@ -2379,8 +2469,11 @@
       <c r="H29" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I29" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>144</v>
       </c>
@@ -2405,8 +2498,11 @@
       <c r="H30" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I30" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>149</v>
       </c>
@@ -2431,8 +2527,11 @@
       <c r="H31" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I31" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>153</v>
       </c>
@@ -2457,8 +2556,11 @@
       <c r="H32" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I32" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>156</v>
       </c>
@@ -2483,8 +2585,11 @@
       <c r="H33" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I33" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>159</v>
       </c>
@@ -2509,8 +2614,11 @@
       <c r="H34" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I34" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>163</v>
       </c>
@@ -2535,8 +2643,11 @@
       <c r="H35" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I35" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>166</v>
       </c>
@@ -2561,8 +2672,11 @@
       <c r="H36" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I36" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>76</v>
       </c>
@@ -2587,8 +2701,11 @@
       <c r="H37" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I37" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>175</v>
       </c>
@@ -2613,8 +2730,11 @@
       <c r="H38" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I38" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>180</v>
       </c>
@@ -2639,8 +2759,11 @@
       <c r="H39" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I39" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>183</v>
       </c>
@@ -2665,8 +2788,11 @@
       <c r="H40" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I40" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>186</v>
       </c>
@@ -2691,8 +2817,11 @@
       <c r="H41" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I41" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>188</v>
       </c>
@@ -2717,8 +2846,11 @@
       <c r="H42" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I42" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>193</v>
       </c>
@@ -2743,8 +2875,11 @@
       <c r="H43" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I43" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>196</v>
       </c>
@@ -2769,8 +2904,11 @@
       <c r="H44" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I44" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>199</v>
       </c>
@@ -2795,8 +2933,11 @@
       <c r="H45" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I45" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>203</v>
       </c>
@@ -2821,8 +2962,11 @@
       <c r="H46" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I46" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>205</v>
       </c>
@@ -2847,8 +2991,11 @@
       <c r="H47" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I47" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>208</v>
       </c>
@@ -2873,8 +3020,11 @@
       <c r="H48" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I48" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>211</v>
       </c>
@@ -2899,8 +3049,11 @@
       <c r="H49" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I49" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>214</v>
       </c>
@@ -2925,8 +3078,11 @@
       <c r="H50" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I50" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>217</v>
       </c>
@@ -2951,8 +3107,11 @@
       <c r="H51" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I51" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>221</v>
       </c>
@@ -2977,8 +3136,11 @@
       <c r="H52" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I52" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>224</v>
       </c>
@@ -3003,8 +3165,11 @@
       <c r="H53" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I53" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>228</v>
       </c>
@@ -3029,8 +3194,11 @@
       <c r="H54" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I54" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>231</v>
       </c>
@@ -3055,8 +3223,11 @@
       <c r="H55" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I55" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>234</v>
       </c>
@@ -3081,8 +3252,11 @@
       <c r="H56" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I56" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>237</v>
       </c>
@@ -3107,8 +3281,11 @@
       <c r="H57" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I57" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>240</v>
       </c>
@@ -3133,8 +3310,11 @@
       <c r="H58" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I58" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>245</v>
       </c>
@@ -3159,8 +3339,11 @@
       <c r="H59" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I59" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>248</v>
       </c>
@@ -3185,8 +3368,11 @@
       <c r="H60" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I60" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>251</v>
       </c>
@@ -3211,8 +3397,11 @@
       <c r="H61" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I61" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>254</v>
       </c>
@@ -3237,8 +3426,11 @@
       <c r="H62" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I62" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>256</v>
       </c>
@@ -3263,8 +3455,11 @@
       <c r="H63" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I63" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>259</v>
       </c>
@@ -3289,8 +3484,11 @@
       <c r="H64" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I64" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>262</v>
       </c>
@@ -3315,8 +3513,11 @@
       <c r="H65" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I65" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>264</v>
       </c>
@@ -3341,8 +3542,11 @@
       <c r="H66" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I66" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>268</v>
       </c>
@@ -3367,8 +3571,11 @@
       <c r="H67" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I67" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>272</v>
       </c>
@@ -3393,8 +3600,11 @@
       <c r="H68" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I68" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>274</v>
       </c>
@@ -3419,8 +3629,11 @@
       <c r="H69" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I69" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>277</v>
       </c>
@@ -3445,8 +3658,11 @@
       <c r="H70" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I70" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>281</v>
       </c>
@@ -3471,8 +3687,11 @@
       <c r="H71" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I71" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>284</v>
       </c>
@@ -3497,8 +3716,11 @@
       <c r="H72" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I72" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>286</v>
       </c>
@@ -3523,8 +3745,11 @@
       <c r="H73" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I73" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>288</v>
       </c>
@@ -3549,8 +3774,11 @@
       <c r="H74" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I74" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>291</v>
       </c>
@@ -3575,8 +3803,11 @@
       <c r="H75" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I75" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>294</v>
       </c>
@@ -3601,8 +3832,11 @@
       <c r="H76" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I76" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>298</v>
       </c>
@@ -3627,8 +3861,11 @@
       <c r="H77" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I77" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>300</v>
       </c>
@@ -3653,8 +3890,11 @@
       <c r="H78" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I78" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>303</v>
       </c>
@@ -3679,8 +3919,11 @@
       <c r="H79" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I79" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>307</v>
       </c>
@@ -3705,8 +3948,11 @@
       <c r="H80" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I80" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>310</v>
       </c>
@@ -3731,8 +3977,11 @@
       <c r="H81" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I81" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>313</v>
       </c>
@@ -3757,8 +4006,11 @@
       <c r="H82" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I82" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>316</v>
       </c>
@@ -3783,8 +4035,11 @@
       <c r="H83" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I83" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>319</v>
       </c>
@@ -3809,8 +4064,11 @@
       <c r="H84" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I84" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>322</v>
       </c>
@@ -3835,8 +4093,11 @@
       <c r="H85" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I85" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>327</v>
       </c>
@@ -3861,8 +4122,11 @@
       <c r="H86" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I86" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>332</v>
       </c>
@@ -3887,8 +4151,11 @@
       <c r="H87" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I87" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>338</v>
       </c>
@@ -3913,8 +4180,11 @@
       <c r="H88" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I88" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>343</v>
       </c>
@@ -3939,8 +4209,11 @@
       <c r="H89" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I89" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>346</v>
       </c>
@@ -3965,8 +4238,11 @@
       <c r="H90" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I90" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>351</v>
       </c>
@@ -3991,8 +4267,11 @@
       <c r="H91" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I91" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>354</v>
       </c>
@@ -4017,8 +4296,11 @@
       <c r="H92" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I92" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>358</v>
       </c>
@@ -4043,8 +4325,11 @@
       <c r="H93" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I93" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>361</v>
       </c>
@@ -4069,8 +4354,11 @@
       <c r="H94" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I94" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>365</v>
       </c>
@@ -4095,8 +4383,11 @@
       <c r="H95" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I95" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>368</v>
       </c>
@@ -4121,8 +4412,11 @@
       <c r="H96" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I96" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>372</v>
       </c>
@@ -4147,8 +4441,11 @@
       <c r="H97" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I97" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>375</v>
       </c>
@@ -4173,8 +4470,11 @@
       <c r="H98" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I98" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>380</v>
       </c>
@@ -4199,8 +4499,11 @@
       <c r="H99" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I99" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>383</v>
       </c>
@@ -4225,8 +4528,11 @@
       <c r="H100" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I100" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>386</v>
       </c>
@@ -4251,8 +4557,11 @@
       <c r="H101" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I101" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>389</v>
       </c>
@@ -4277,8 +4586,11 @@
       <c r="H102" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I102" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>392</v>
       </c>
@@ -4303,8 +4615,11 @@
       <c r="H103" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I103" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>396</v>
       </c>
@@ -4329,8 +4644,11 @@
       <c r="H104" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I104" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>399</v>
       </c>
@@ -4355,8 +4673,11 @@
       <c r="H105" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I105" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>402</v>
       </c>
@@ -4381,8 +4702,11 @@
       <c r="H106" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I106" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>405</v>
       </c>
@@ -4406,6 +4730,9 @@
       </c>
       <c r="H107" t="s">
         <v>408</v>
+      </c>
+      <c r="I107" t="s">
+        <v>411</v>
       </c>
     </row>
   </sheetData>
